--- a/artfynd/A 14493-2022.xlsx
+++ b/artfynd/A 14493-2022.xlsx
@@ -916,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100890468</v>
+        <v>100891113</v>
       </c>
       <c r="B4" t="n">
-        <v>89356</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,30 +928,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -959,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>806772.363243226</v>
+        <v>806814.4326894956</v>
       </c>
       <c r="R4" t="n">
-        <v>7175558.485492887</v>
+        <v>7175557.99483321</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,7 +1018,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1047,7 +1051,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100887736</v>
+        <v>100945295</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1081,22 +1085,26 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Karlgrundsmoren, Vb</t>
+          <t>Burvik, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>806712.6351854501</v>
+        <v>806845.0991897933</v>
       </c>
       <c r="R5" t="n">
-        <v>7175617.756130967</v>
+        <v>7175490.583056876</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1136,11 +1144,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Torkad</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1153,40 +1156,25 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100891113</v>
+        <v>100945131</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1199,45 +1187,44 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Karlgrundsmoren, Vb</t>
+          <t>Burvik, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>806814.4326894956</v>
+        <v>806795.2342230955</v>
       </c>
       <c r="R6" t="n">
-        <v>7175557.99483321</v>
+        <v>7175644.739797495</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1285,43 +1272,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100890647</v>
+        <v>101279776</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1330,41 +1303,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Karlgrundsmoren, Vb</t>
+          <t>Burvik, Burvik, Vb</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>806785.6405356181</v>
+        <v>806838.9976605003</v>
       </c>
       <c r="R7" t="n">
-        <v>7175538.632476954</v>
+        <v>7175499.482516243</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1391,22 +1373,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1419,40 +1401,25 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Jon Andersson, Patrik Nygren</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100945031</v>
+        <v>100890468</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1461,48 +1428,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Burvik, Vb</t>
+          <t>Karlgrundsmoren, Vb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>806750.2499365495</v>
+        <v>806772.363243226</v>
       </c>
       <c r="R8" t="n">
-        <v>7175580.037869117</v>
+        <v>7175558.485492887</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1554,25 +1517,40 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100945368</v>
+        <v>100887736</v>
       </c>
       <c r="B9" t="n">
-        <v>89388</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1585,44 +1563,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Burvik, Vb</t>
+          <t>Karlgrundsmoren, Vb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>806874.6453256523</v>
+        <v>806712.6351854501</v>
       </c>
       <c r="R9" t="n">
-        <v>7175459.833355412</v>
+        <v>7175617.756130967</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1662,6 +1636,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Torkad</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1674,25 +1653,40 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100945088</v>
+        <v>100890647</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1701,48 +1695,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Burvik, Vb</t>
+          <t>Karlgrundsmoren, Vb</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>806765.2456494838</v>
+        <v>806785.6405356181</v>
       </c>
       <c r="R10" t="n">
-        <v>7175590.212229759</v>
+        <v>7175538.632476954</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1794,22 +1784,37 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100945295</v>
+        <v>100945031</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1856,10 +1861,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>806845.0991897933</v>
+        <v>806750.2499365495</v>
       </c>
       <c r="R11" t="n">
-        <v>7175490.583056876</v>
+        <v>7175580.037869117</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1929,10 +1934,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100945420</v>
+        <v>100945368</v>
       </c>
       <c r="B12" t="n">
-        <v>81236</v>
+        <v>89388</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1945,21 +1950,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1976,10 +1981,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>806950.0357482962</v>
+        <v>806874.6453256523</v>
       </c>
       <c r="R12" t="n">
-        <v>7175429.842739396</v>
+        <v>7175459.833355412</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2049,10 +2054,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100945131</v>
+        <v>100945088</v>
       </c>
       <c r="B13" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2065,21 +2070,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2096,10 +2101,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>806795.2342230955</v>
+        <v>806765.2456494838</v>
       </c>
       <c r="R13" t="n">
-        <v>7175644.739797495</v>
+        <v>7175590.212229759</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2169,10 +2174,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100945401</v>
+        <v>100945420</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2185,21 +2190,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2216,10 +2221,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>806914.5347780141</v>
+        <v>806950.0357482962</v>
       </c>
       <c r="R14" t="n">
-        <v>7175455.228436214</v>
+        <v>7175429.842739396</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2289,10 +2294,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100945319</v>
+        <v>100945401</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2305,27 +2310,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -2336,10 +2341,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>806849.8072187628</v>
+        <v>806914.5347780141</v>
       </c>
       <c r="R15" t="n">
-        <v>7175465.533442252</v>
+        <v>7175455.228436214</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2409,10 +2414,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100945109</v>
+        <v>100945319</v>
       </c>
       <c r="B16" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2421,31 +2426,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2456,10 +2461,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>806775.5716160003</v>
+        <v>806849.8072187628</v>
       </c>
       <c r="R16" t="n">
-        <v>7175629.332793099</v>
+        <v>7175465.533442252</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2529,10 +2534,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101279776</v>
+        <v>100945109</v>
       </c>
       <c r="B17" t="n">
-        <v>96334</v>
+        <v>89356</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2541,53 +2546,48 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Burvik, Burvik, Vb</t>
+          <t>Burvik, Vb</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>806838.9976605003</v>
+        <v>806775.5716160003</v>
       </c>
       <c r="R17" t="n">
-        <v>7175499.482516243</v>
+        <v>7175629.332793099</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2642,12 +2642,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Jon Andersson, Patrik Nygren</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 14493-2022.xlsx
+++ b/artfynd/A 14493-2022.xlsx
@@ -916,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100891113</v>
+        <v>100890468</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>89356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,35 +928,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -964,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>806814.4326894956</v>
+        <v>806772.363243226</v>
       </c>
       <c r="R4" t="n">
-        <v>7175557.99483321</v>
+        <v>7175558.485492887</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,6 +1013,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1051,7 +1047,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100945295</v>
+        <v>100887736</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1085,26 +1081,22 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Burvik, Vb</t>
+          <t>Karlgrundsmoren, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>806845.0991897933</v>
+        <v>806712.6351854501</v>
       </c>
       <c r="R5" t="n">
-        <v>7175490.583056876</v>
+        <v>7175617.756130967</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1144,6 +1136,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Torkad</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1156,25 +1153,40 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100945131</v>
+        <v>100891113</v>
       </c>
       <c r="B6" t="n">
-        <v>81236</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,44 +1199,45 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Burvik, Vb</t>
+          <t>Karlgrundsmoren, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>806795.2342230955</v>
+        <v>806814.4326894956</v>
       </c>
       <c r="R6" t="n">
-        <v>7175644.739797495</v>
+        <v>7175557.99483321</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1272,29 +1285,43 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101279776</v>
+        <v>100890647</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,50 +1330,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Burvik, Burvik, Vb</t>
+          <t>Karlgrundsmoren, Vb</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>806838.9976605003</v>
+        <v>806785.6405356181</v>
       </c>
       <c r="R7" t="n">
-        <v>7175499.482516243</v>
+        <v>7175538.632476954</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1373,22 +1391,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,25 +1419,40 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jon Andersson, Patrik Nygren</t>
+          <t>Roger Olofsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100890468</v>
+        <v>100945031</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,44 +1461,48 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Karlgrundsmoren, Vb</t>
+          <t>Burvik, Vb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>806772.363243226</v>
+        <v>806750.2499365495</v>
       </c>
       <c r="R8" t="n">
-        <v>7175558.485492887</v>
+        <v>7175580.037869117</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1517,40 +1554,25 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100887736</v>
+        <v>100945368</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>89388</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1563,40 +1585,44 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Karlgrundsmoren, Vb</t>
+          <t>Burvik, Vb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>806712.6351854501</v>
+        <v>806874.6453256523</v>
       </c>
       <c r="R9" t="n">
-        <v>7175617.756130967</v>
+        <v>7175459.833355412</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1636,11 +1662,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Torkad</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1653,40 +1674,25 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100890647</v>
+        <v>100945088</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1695,44 +1701,48 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Karlgrundsmoren, Vb</t>
+          <t>Burvik, Vb</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>806785.6405356181</v>
+        <v>806765.2456494838</v>
       </c>
       <c r="R10" t="n">
-        <v>7175538.632476954</v>
+        <v>7175590.212229759</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1784,37 +1794,22 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Roger Olofsson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100945031</v>
+        <v>100945295</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1861,10 +1856,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>806750.2499365495</v>
+        <v>806845.0991897933</v>
       </c>
       <c r="R11" t="n">
-        <v>7175580.037869117</v>
+        <v>7175490.583056876</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1934,10 +1929,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100945368</v>
+        <v>100945420</v>
       </c>
       <c r="B12" t="n">
-        <v>89388</v>
+        <v>81236</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1950,21 +1945,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1981,10 +1976,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>806874.6453256523</v>
+        <v>806950.0357482962</v>
       </c>
       <c r="R12" t="n">
-        <v>7175459.833355412</v>
+        <v>7175429.842739396</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2054,10 +2049,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100945088</v>
+        <v>100945131</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2070,21 +2065,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2101,10 +2096,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>806765.2456494838</v>
+        <v>806795.2342230955</v>
       </c>
       <c r="R13" t="n">
-        <v>7175590.212229759</v>
+        <v>7175644.739797495</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2174,10 +2169,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100945420</v>
+        <v>100945401</v>
       </c>
       <c r="B14" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2190,21 +2185,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2221,10 +2216,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>806950.0357482962</v>
+        <v>806914.5347780141</v>
       </c>
       <c r="R14" t="n">
-        <v>7175429.842739396</v>
+        <v>7175455.228436214</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2294,10 +2289,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100945401</v>
+        <v>100945319</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2310,27 +2305,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -2341,10 +2336,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>806914.5347780141</v>
+        <v>806849.8072187628</v>
       </c>
       <c r="R15" t="n">
-        <v>7175455.228436214</v>
+        <v>7175465.533442252</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2414,10 +2409,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100945319</v>
+        <v>100945109</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2426,31 +2421,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2461,10 +2456,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>806849.8072187628</v>
+        <v>806775.5716160003</v>
       </c>
       <c r="R16" t="n">
-        <v>7175465.533442252</v>
+        <v>7175629.332793099</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2534,10 +2529,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100945109</v>
+        <v>101279776</v>
       </c>
       <c r="B17" t="n">
-        <v>89356</v>
+        <v>96334</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2546,48 +2541,53 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Burvik, Vb</t>
+          <t>Burvik, Burvik, Vb</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>806775.5716160003</v>
+        <v>806838.9976605003</v>
       </c>
       <c r="R17" t="n">
-        <v>7175629.332793099</v>
+        <v>7175499.482516243</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2642,12 +2642,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Jon Andersson, Patrik Nygren</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
